--- a/test_cases_v1.xls.xlsx
+++ b/test_cases_v1.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\source\repos\work\group proj\Project1\CPR101-group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AB10C5-A07A-4E22-AA07-3A0EA99521DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3F3D2-A0AB-4097-AD34-3246ADE74D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
+    <workbookView xWindow="90" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,100 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Block Name</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t>Indexing</t>
+  </si>
+  <si>
+    <t>Cases Description</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Nominal Function</t>
+  </si>
+  <si>
+    <t>The character found at 0 position is 'j'</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>j, 0</t>
+  </si>
+  <si>
+    <t>Over the Edge Case</t>
+  </si>
+  <si>
+    <t>j, 90</t>
+  </si>
+  <si>
+    <t>Too big... Position reduced to max. avaliable
+The character found at 0 position is 'j'</t>
+  </si>
+  <si>
+    <t>ycdacvwibifyjqxifrikhxexqbbwxgyueszpzhxzzwavtgcskmmkqvmdzsoqxccqcinrkapqrtejzjhkgaehrcukxl, 90</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>everyone, -5</t>
+  </si>
+  <si>
+    <t>The character found at -5 position is 'r' ; otherwise error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type the character position within the string: 
+The character found at 0 position is 'y'
+Type not empty string (q - to quit):
+Type the character position within the string:
+The character found at 0 position is 'l'
+Type not empty string (q - to quit):
+Type the character position within the string:
+The character found at 0 position is 'k'
+Type not empty string (q - to quit):
+Type the character position within the string:
+The character found at 0 position is 'k'
+Type not empty string (q - to quit):
+Type the character position within the string:; </t>
+  </si>
+  <si>
+    <t>NOTE: buffer remains uncleared</t>
+  </si>
+  <si>
+    <t>Too big... Position reduced to max. avaliable
+The character found at 7 position is 'e'</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -126,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -232,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -374,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,12 +480,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BF308-B62F-4CCB-B93E-A44D7D6C55C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>DATE(2024,4,1)</f>
+        <v>45383</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A5" si="0">DATE(2024,4,1)</f>
+        <v>45383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_cases_v1.xls.xlsx
+++ b/test_cases_v1.xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\source\repos\work\group proj\Project1\CPR101-group-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dansu\Documents\GitHub\CPR101-group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F3F3D2-A0AB-4097-AD34-3246ADE74D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FCA570-0013-474B-9F0F-5D5A98382804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>Too big... Position reduced to max. avaliable
 The character found at 7 position is 'e'</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +636,9 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_cases_v1.xls.xlsx
+++ b/test_cases_v1.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dansu\Documents\GitHub\CPR101-group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FCA570-0013-474B-9F0F-5D5A98382804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C22141-202B-4749-96D6-5A5DF97EBA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -125,9 +125,6 @@
   <si>
     <t>Too big... Position reduced to max. avaliable
 The character found at 7 position is 'e'</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -636,9 +633,6 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_cases_v1.xls.xlsx
+++ b/test_cases_v1.xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dansu\Documents\GitHub\CPR101-group-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\source\repos\work\group proj\Project1\CPR101-group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C22141-202B-4749-96D6-5A5DF97EBA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6724C4-5450-49C9-A765-E1404D9CAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
+    <workbookView xWindow="90" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{4AAD30DE-B638-4FB7-8FBC-1C0460FF32ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,51 @@
   <si>
     <t>Too big... Position reduced to max. avaliable
 The character found at 7 position is 'e'</t>
+  </si>
+  <si>
+    <t>Measuring</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>The length of 'everyone' is 8 characters</t>
+  </si>
+  <si>
+    <t>Edge Case - Empty String</t>
+  </si>
+  <si>
+    <t>The length of '' is 0 characters</t>
+  </si>
+  <si>
+    <t>ycdacvwibifyjqxifrikhxexqbbwxgyueszpzhxzzwavtgcskmmkqvmdzsoqxccqcinrkapqrtejzjhkgaehrcukxl,</t>
+  </si>
+  <si>
+    <t>Edge Case - 80 characters</t>
+  </si>
+  <si>
+    <t>1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>The length of '1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890' is 80 characters</t>
+  </si>
+  <si>
+    <t>The length of '12345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678' is 78 characters. The length of '0' is 1 characters.</t>
+  </si>
+  <si>
+    <t>The length of 'ycdacvwibifyjqxifrikhxexqbbwxgyueszpzhxzzwavtgcskmmkqvmdzsoqxccqcinrkapqrtejzj' is 78 characters. The length of 'kgaehrcukxl' is 11 characters</t>
+  </si>
+  <si>
+    <t>Over the Edge Case - 90 characters</t>
+  </si>
+  <si>
+    <t>Unexpected characters</t>
+  </si>
+  <si>
+    <t>CTRL+D (EOF)</t>
+  </si>
+  <si>
+    <t>The length of '♦' is 1 characters</t>
   </si>
 </sst>
 </file>
@@ -160,10 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BF308-B62F-4CCB-B93E-A44D7D6C55C3}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,8 +539,8 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="41.140625" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
@@ -634,7 +682,135 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>